--- a/users.xlsx
+++ b/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,24 +460,36 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>princy22</t>
+          <t>Choubey22</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>princyk2007@gmail.com</t>
+          <t>jyotichoubey772@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Choubey22</t>
+          <t>princy22</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jyotichoubey772@gmail.com</t>
+          <t>princyk2007@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>choubey99</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>choubey772@gmail.com</t>
         </is>
       </c>
     </row>
